--- a/Refinitiv/Analysis/HK/HK_Descriptive Statistics.xlsx
+++ b/Refinitiv/Analysis/HK/HK_Descriptive Statistics.xlsx
@@ -824,66 +824,6 @@
       <c r="D3" t="n">
         <v>348</v>
       </c>
-      <c r="G3" t="n">
-        <v>1413</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1399</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1413</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1405</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1404</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1404</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1413</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1413</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1357</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1372</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1410</v>
-      </c>
-      <c r="R3" t="n">
-        <v>320</v>
-      </c>
-      <c r="S3" t="n">
-        <v>332</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1752</v>
-      </c>
-      <c r="U3" t="n">
-        <v>338</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1741</v>
-      </c>
-      <c r="W3" t="n">
-        <v>338</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1410</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1699</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1372</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -901,66 +841,6 @@
           <t>2343.HK</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>65.68758848384731</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>63.2755565321275</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5288.586638549419</v>
-      </c>
-      <c r="N4" t="n">
-        <v>283432.7008044283</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.593388566</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>14.474413951</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.377359989</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>299084344.87646</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.06908742581117852</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.824791797</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>5.888959699999999</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -974,66 +854,6 @@
       <c r="D5" t="n">
         <v>6</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>6</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>145</v>
-      </c>
-      <c r="S5" t="n">
-        <v>76</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>49</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>49</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1050,9 +870,63 @@
       <c r="F6" t="n">
         <v>2019.086081609838</v>
       </c>
+      <c r="G6" t="n">
+        <v>51.48472391399029</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50.60755926316322</v>
+      </c>
+      <c r="I6" t="n">
+        <v>48.15822712641475</v>
+      </c>
+      <c r="J6" t="n">
+        <v>56.38270831546305</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2653.012561327719</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2873.343491797922</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2732.232641521527</v>
+      </c>
+      <c r="N6" t="n">
+        <v>165106.2475409963</v>
+      </c>
+      <c r="O6" t="n">
+        <v>19.8904978311913</v>
+      </c>
+      <c r="P6" t="n">
+        <v>22.03197717961866</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>95.79049408224471</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.925780582370485</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.8439787173411903</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.339555440648116</v>
+      </c>
+      <c r="U6" t="n">
+        <v>50.6098520466497</v>
+      </c>
+      <c r="V6" t="n">
+        <v>9408702754.195225</v>
+      </c>
+      <c r="W6" t="n">
+        <v>53.98617537798903</v>
+      </c>
       <c r="X6" t="n">
         <v>-0.0366389455108218</v>
       </c>
+      <c r="Y6" t="n">
+        <v>0.1508458506960731</v>
+      </c>
       <c r="Z6" t="n">
         <v>0.1477232141448959</v>
       </c>
@@ -1062,6 +936,9 @@
       <c r="AB6" t="n">
         <v>5.547175367892904e-17</v>
       </c>
+      <c r="AC6" t="n">
+        <v>18.5595401452801</v>
+      </c>
       <c r="AD6" t="n">
         <v>18.63047470030682</v>
       </c>
@@ -1071,6 +948,9 @@
       <c r="AF6" t="n">
         <v>-3.349641653553802e-17</v>
       </c>
+      <c r="AG6" t="n">
+        <v>8.181976829350004</v>
+      </c>
       <c r="AH6" t="n">
         <v>7.579736892689545</v>
       </c>
@@ -1111,9 +991,63 @@
       <c r="F7" t="n">
         <v>1.484962550481955</v>
       </c>
+      <c r="G7" t="n">
+        <v>13.61498356546453</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20.27993945625253</v>
+      </c>
+      <c r="I7" t="n">
+        <v>18.08384025949885</v>
+      </c>
+      <c r="J7" t="n">
+        <v>19.87157400581872</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1723.505173154446</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1603.510961402266</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1499.288314395472</v>
+      </c>
+      <c r="N7" t="n">
+        <v>121628.1656343791</v>
+      </c>
+      <c r="O7" t="n">
+        <v>41.28561996785294</v>
+      </c>
+      <c r="P7" t="n">
+        <v>66.45499500471675</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2385.801069781274</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.6094216696086281</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.5427660906465637</v>
+      </c>
+      <c r="T7" t="n">
+        <v>18.37286716499127</v>
+      </c>
+      <c r="U7" t="n">
+        <v>25.87312699073571</v>
+      </c>
+      <c r="V7" t="n">
+        <v>31025589787.37921</v>
+      </c>
+      <c r="W7" t="n">
+        <v>29.7272498150084</v>
+      </c>
       <c r="X7" t="n">
         <v>0.9369533334389853</v>
       </c>
+      <c r="Y7" t="n">
+        <v>0.487463762369141</v>
+      </c>
       <c r="Z7" t="n">
         <v>0.2310238451103201</v>
       </c>
@@ -1123,6 +1057,9 @@
       <c r="AB7" t="n">
         <v>0.9777350914695192</v>
       </c>
+      <c r="AC7" t="n">
+        <v>354.6696458411183</v>
+      </c>
       <c r="AD7" t="n">
         <v>64.40522546666361</v>
       </c>
@@ -1132,6 +1069,9 @@
       <c r="AF7" t="n">
         <v>0.9815515249982627</v>
       </c>
+      <c r="AG7" t="n">
+        <v>124.5591951743139</v>
+      </c>
       <c r="AH7" t="n">
         <v>47.87474289104063</v>
       </c>
@@ -1172,9 +1112,63 @@
       <c r="F8" t="n">
         <v>2017</v>
       </c>
+      <c r="G8" t="n">
+        <v>11.9320378601968</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.68130501339456</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.78899075483514</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>124.8114555427984</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1698.806320386001</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.096212113990482</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.06748829419609099</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.465974128803762</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.13823804827088</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-275.8579110609</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>8139905.5198973</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
       <c r="X8" t="n">
         <v>-4.371746704054132</v>
       </c>
+      <c r="Y8" t="n">
+        <v>1.118963486454647e-05</v>
+      </c>
       <c r="Z8" t="n">
         <v>0.04205275655091539</v>
       </c>
@@ -1184,6 +1178,9 @@
       <c r="AB8" t="n">
         <v>-1.933011906651722</v>
       </c>
+      <c r="AC8" t="n">
+        <v>0.030235587</v>
+      </c>
       <c r="AD8" t="n">
         <v>0.072590035772337</v>
       </c>
@@ -1193,6 +1190,9 @@
       <c r="AF8" t="n">
         <v>-1.556530765980039</v>
       </c>
+      <c r="AG8" t="n">
+        <v>0.006938358022568212</v>
+      </c>
       <c r="AH8" t="n">
         <v>0.4444897926620827</v>
       </c>
@@ -1233,9 +1233,63 @@
       <c r="F9" t="n">
         <v>2018</v>
       </c>
+      <c r="G9" t="n">
+        <v>42.5218530970591</v>
+      </c>
+      <c r="H9" t="n">
+        <v>36.8064951146347</v>
+      </c>
+      <c r="I9" t="n">
+        <v>34.5615397966496</v>
+      </c>
+      <c r="J9" t="n">
+        <v>41.6182456140351</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1354.170566090234</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1584.988432018132</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1617.909969968546</v>
+      </c>
+      <c r="N9" t="n">
+        <v>76884.10236875113</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.625497746698368</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5.842975093274302</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.589173640877774</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.471751656461634</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.1752825705</v>
+      </c>
+      <c r="U9" t="n">
+        <v>34.9625798581393</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1171052432.04107</v>
+      </c>
+      <c r="W9" t="n">
+        <v>36.0482416946772</v>
+      </c>
       <c r="X9" t="n">
         <v>-0.3558932867548997</v>
       </c>
+      <c r="Y9" t="n">
+        <v>0.04605633531471059</v>
+      </c>
       <c r="Z9" t="n">
         <v>0.07502137828768565</v>
       </c>
@@ -1245,6 +1299,9 @@
       <c r="AB9" t="n">
         <v>-0.652657594576518</v>
       </c>
+      <c r="AC9" t="n">
+        <v>0.5435058125007795</v>
+      </c>
       <c r="AD9" t="n">
         <v>2.41346701763079</v>
       </c>
@@ -1254,6 +1311,9 @@
       <c r="AF9" t="n">
         <v>-0.5715110933459974</v>
       </c>
+      <c r="AG9" t="n">
+        <v>0.4444574111924894</v>
+      </c>
       <c r="AH9" t="n">
         <v>2.236480928028072</v>
       </c>
@@ -1294,9 +1354,63 @@
       <c r="F10" t="n">
         <v>2019</v>
       </c>
+      <c r="G10" t="n">
+        <v>51.2230762947906</v>
+      </c>
+      <c r="H10" t="n">
+        <v>51.2518538306358</v>
+      </c>
+      <c r="I10" t="n">
+        <v>46.6322699828008</v>
+      </c>
+      <c r="J10" t="n">
+        <v>57.1733610421597</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2361.082820166388</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2722.742661527486</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2491.627453346198</v>
+      </c>
+      <c r="N10" t="n">
+        <v>134399.2891732987</v>
+      </c>
+      <c r="O10" t="n">
+        <v>7.156548</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.1736587605</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>10.63272990335615</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.902749139469404</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.759634935815751</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.74589001185</v>
+      </c>
+      <c r="U10" t="n">
+        <v>45.6255990665043</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3361633598.04034</v>
+      </c>
+      <c r="W10" t="n">
+        <v>49.5824211135239</v>
+      </c>
       <c r="X10" t="n">
         <v>-0.08516870787265324</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0.09404923877341792</v>
+      </c>
       <c r="Z10" t="n">
         <v>0.1144632673938617</v>
       </c>
@@ -1306,6 +1420,9 @@
       <c r="AB10" t="n">
         <v>-0.222970167129046</v>
       </c>
+      <c r="AC10" t="n">
+        <v>1.462185443</v>
+      </c>
       <c r="AD10" t="n">
         <v>3.179749760669777</v>
       </c>
@@ -1315,6 +1432,9 @@
       <c r="AF10" t="n">
         <v>-0.3208186145692662</v>
       </c>
+      <c r="AG10" t="n">
+        <v>1.018089826734382</v>
+      </c>
       <c r="AH10" t="n">
         <v>2.948670848983199</v>
       </c>
@@ -1355,9 +1475,63 @@
       <c r="F11" t="n">
         <v>2020</v>
       </c>
+      <c r="G11" t="n">
+        <v>60.6964300536413</v>
+      </c>
+      <c r="H11" t="n">
+        <v>65.1536086515201</v>
+      </c>
+      <c r="I11" t="n">
+        <v>61.1923642947161</v>
+      </c>
+      <c r="J11" t="n">
+        <v>72.7691228070175</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3676.945963857558</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3901.910634991028</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3569.112877049816</v>
+      </c>
+      <c r="N11" t="n">
+        <v>223609.0850257536</v>
+      </c>
+      <c r="O11" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="P11" t="n">
+        <v>19.48876044822527</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>21.71256451800405</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.19078344892068</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.17043133124314</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7.54433891875</v>
+      </c>
+      <c r="U11" t="n">
+        <v>61.8064999988478</v>
+      </c>
+      <c r="V11" t="n">
+        <v>8475878901.60462</v>
+      </c>
+      <c r="W11" t="n">
+        <v>65.57001639811919</v>
+      </c>
       <c r="X11" t="n">
         <v>0.1895865896310588</v>
       </c>
+      <c r="Y11" t="n">
+        <v>0.1711457026153066</v>
+      </c>
       <c r="Z11" t="n">
         <v>0.1755151791276447</v>
       </c>
@@ -1367,6 +1541,9 @@
       <c r="AB11" t="n">
         <v>0.3760544478783036</v>
       </c>
+      <c r="AC11" t="n">
+        <v>3.7642770419078</v>
+      </c>
       <c r="AD11" t="n">
         <v>5.572828363071122</v>
       </c>
@@ -1376,6 +1553,9 @@
       <c r="AF11" t="n">
         <v>0.1275739212834519</v>
       </c>
+      <c r="AG11" t="n">
+        <v>2.668532761542454</v>
+      </c>
       <c r="AH11" t="n">
         <v>3.884563603591374</v>
       </c>
@@ -1416,9 +1596,63 @@
       <c r="F12" t="n">
         <v>2022</v>
       </c>
+      <c r="G12" t="n">
+        <v>91.0727090181734</v>
+      </c>
+      <c r="H12" t="n">
+        <v>98.2761721811863</v>
+      </c>
+      <c r="I12" t="n">
+        <v>95.22303729846359</v>
+      </c>
+      <c r="J12" t="n">
+        <v>97.8127413127413</v>
+      </c>
+      <c r="K12" t="n">
+        <v>9195.123247177175</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7981.226700483277</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8110.709913728177</v>
+      </c>
+      <c r="N12" t="n">
+        <v>755378.7537650267</v>
+      </c>
+      <c r="O12" t="n">
+        <v>519.92648879</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1414.073800429</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>89368.42105263199</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.29542616368157</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.69388553673174</v>
+      </c>
+      <c r="T12" t="n">
+        <v>377.817151945</v>
+      </c>
+      <c r="U12" t="n">
+        <v>230.045673051157</v>
+      </c>
+      <c r="V12" t="n">
+        <v>697982117436.631</v>
+      </c>
+      <c r="W12" t="n">
+        <v>319.428684596163</v>
+      </c>
       <c r="X12" t="n">
         <v>6.754768759382326</v>
       </c>
+      <c r="Y12" t="n">
+        <v>14.81738443550587</v>
+      </c>
       <c r="Z12" t="n">
         <v>2.788506854188788</v>
       </c>
@@ -1428,6 +1662,9 @@
       <c r="AB12" t="n">
         <v>5.295260951325592</v>
       </c>
+      <c r="AC12" t="n">
+        <v>13016.1328463612</v>
+      </c>
       <c r="AD12" t="n">
         <v>452.73467991002</v>
       </c>
@@ -1436,6 +1673,9 @@
       </c>
       <c r="AF12" t="n">
         <v>5.399968363279024</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>4392.838036620215</v>
       </c>
       <c r="AH12" t="n">
         <v>733.6510597563232</v>
